--- a/DATA_DATN/Thongke_phuong_tien_vi_pham_mu_bao_hiem/thong_ke_helmet.xlsx
+++ b/DATA_DATN/Thongke_phuong_tien_vi_pham_mu_bao_hiem/thong_ke_helmet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\YOLOv8-Traffic-Monitoring-Systems\DATA_DATN\Thongke_phuong_tien_vi_pham_mu_bao_hiem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F272ADE-71E9-4A45-ABCB-6190837AA4E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94D56E1F-FD27-4906-B9A9-02EA6C29AC1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Trang_tính1" sheetId="1" r:id="rId1"/>
@@ -70,14 +70,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -85,7 +85,7 @@
       <b/>
       <sz val="16"/>
       <color theme="1"/>
-      <name val="Calibri Light"/>
+      <name val="Times New Roman"/>
       <family val="1"/>
       <scheme val="major"/>
     </font>
@@ -274,7 +274,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -299,9 +299,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -647,26 +644,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:Z307"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O131" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="X144" sqref="X144"/>
+    <sheetView tabSelected="1" topLeftCell="P131" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="Y150" sqref="Y150"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" customWidth="1"/>
-    <col min="8" max="8" width="6.44140625" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" customWidth="1"/>
+    <col min="2" max="2" width="14.69921875" customWidth="1"/>
+    <col min="4" max="4" width="15.59765625" customWidth="1"/>
+    <col min="8" max="8" width="6.3984375" customWidth="1"/>
+    <col min="9" max="9" width="16.296875" customWidth="1"/>
     <col min="10" max="10" width="14" customWidth="1"/>
-    <col min="11" max="11" width="17.6640625" customWidth="1"/>
-    <col min="15" max="15" width="17.6640625" customWidth="1"/>
-    <col min="16" max="16" width="19.44140625" customWidth="1"/>
-    <col min="17" max="17" width="14.109375" customWidth="1"/>
-    <col min="23" max="23" width="18.33203125" customWidth="1"/>
-    <col min="25" max="25" width="16.109375" customWidth="1"/>
+    <col min="11" max="11" width="17.69921875" customWidth="1"/>
+    <col min="15" max="15" width="17.69921875" customWidth="1"/>
+    <col min="16" max="16" width="19.3984375" customWidth="1"/>
+    <col min="17" max="17" width="14.09765625" customWidth="1"/>
+    <col min="23" max="23" width="18.296875" customWidth="1"/>
+    <col min="25" max="25" width="16.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B3" s="2"/>
       <c r="C3" s="1">
         <v>0</v>
@@ -698,7 +695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B4" s="2">
         <v>1</v>
       </c>
@@ -736,7 +733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
@@ -774,7 +771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>6</v>
       </c>
@@ -812,7 +809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>1</v>
       </c>
@@ -850,7 +847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B13" s="2"/>
       <c r="C13" s="1">
         <v>1</v>
@@ -882,7 +879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B14" s="2">
         <v>4</v>
       </c>
@@ -920,7 +917,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
         <v>5</v>
       </c>
@@ -958,7 +955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
         <v>6</v>
       </c>
@@ -996,7 +993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
         <v>1</v>
       </c>
@@ -1034,7 +1031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B22" s="2"/>
       <c r="C22" s="1">
         <v>0</v>
@@ -1066,7 +1063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B23" s="2">
         <v>7</v>
       </c>
@@ -1104,7 +1101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B24" s="2" t="s">
         <v>5</v>
       </c>
@@ -1142,7 +1139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B25" s="2" t="s">
         <v>6</v>
       </c>
@@ -1180,7 +1177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B26" s="2" t="s">
         <v>1</v>
       </c>
@@ -1218,7 +1215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B31" s="2"/>
       <c r="C31" s="1">
         <v>0</v>
@@ -1250,7 +1247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B32" s="2">
         <v>10</v>
       </c>
@@ -1288,7 +1285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B33" s="2" t="s">
         <v>5</v>
       </c>
@@ -1326,7 +1323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B34" s="2" t="s">
         <v>6</v>
       </c>
@@ -1364,7 +1361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B35" s="2" t="s">
         <v>1</v>
       </c>
@@ -1402,7 +1399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B40" s="2"/>
       <c r="C40" s="1">
         <v>2</v>
@@ -1434,7 +1431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B41" s="2">
         <v>13</v>
       </c>
@@ -1472,7 +1469,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B42" s="2" t="s">
         <v>5</v>
       </c>
@@ -1510,7 +1507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B43" s="2" t="s">
         <v>6</v>
       </c>
@@ -1548,7 +1545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B44" s="2" t="s">
         <v>1</v>
       </c>
@@ -1586,7 +1583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B48" s="2"/>
       <c r="C48" s="1">
         <v>3</v>
@@ -1618,7 +1615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B49" s="2">
         <v>16</v>
       </c>
@@ -1656,7 +1653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B50" s="2" t="s">
         <v>5</v>
       </c>
@@ -1694,7 +1691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B51" s="2" t="s">
         <v>6</v>
       </c>
@@ -1732,7 +1729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B52" s="2" t="s">
         <v>1</v>
       </c>
@@ -1770,7 +1767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B58" s="2"/>
       <c r="C58" s="1">
         <v>4</v>
@@ -1802,7 +1799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B59" s="2">
         <v>19</v>
       </c>
@@ -1840,7 +1837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B60" s="2" t="s">
         <v>5</v>
       </c>
@@ -1878,7 +1875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B61" s="2" t="s">
         <v>6</v>
       </c>
@@ -1916,7 +1913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B62" s="2" t="s">
         <v>1</v>
       </c>
@@ -1954,7 +1951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B67" s="2"/>
       <c r="C67" s="1">
         <v>2</v>
@@ -1986,7 +1983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B68" s="2">
         <v>22</v>
       </c>
@@ -2024,7 +2021,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B69" s="2" t="s">
         <v>5</v>
       </c>
@@ -2062,7 +2059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B70" s="2" t="s">
         <v>6</v>
       </c>
@@ -2100,7 +2097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B71" s="2" t="s">
         <v>1</v>
       </c>
@@ -2138,7 +2135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B76" s="2"/>
       <c r="C76" s="1">
         <v>4</v>
@@ -2170,7 +2167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B77" s="2">
         <v>25</v>
       </c>
@@ -2208,7 +2205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B78" s="2" t="s">
         <v>5</v>
       </c>
@@ -2246,7 +2243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B79" s="2" t="s">
         <v>6</v>
       </c>
@@ -2284,7 +2281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B80" s="2" t="s">
         <v>1</v>
       </c>
@@ -2322,7 +2319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B85" s="2"/>
       <c r="C85" s="1">
         <v>4</v>
@@ -2354,7 +2351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B86" s="2">
         <v>28</v>
       </c>
@@ -2392,7 +2389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B87" s="2" t="s">
         <v>5</v>
       </c>
@@ -2430,7 +2427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B88" s="2" t="s">
         <v>6</v>
       </c>
@@ -2468,7 +2465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B89" s="2" t="s">
         <v>1</v>
       </c>
@@ -2506,7 +2503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B95" s="2"/>
       <c r="C95" s="1">
         <v>4</v>
@@ -2538,7 +2535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B96" s="2">
         <v>31</v>
       </c>
@@ -2576,7 +2573,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B97" s="2" t="s">
         <v>5</v>
       </c>
@@ -2614,7 +2611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B98" s="2" t="s">
         <v>6</v>
       </c>
@@ -2652,7 +2649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B99" s="2" t="s">
         <v>1</v>
       </c>
@@ -2690,7 +2687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B105" s="2"/>
       <c r="C105" s="1">
         <v>0</v>
@@ -2722,7 +2719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B106" s="2">
         <v>34</v>
       </c>
@@ -2760,7 +2757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B107" s="2" t="s">
         <v>5</v>
       </c>
@@ -2798,7 +2795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B108" s="2" t="s">
         <v>6</v>
       </c>
@@ -2836,7 +2833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B109" s="2" t="s">
         <v>1</v>
       </c>
@@ -2874,7 +2871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B114" s="2"/>
       <c r="C114" s="1">
         <v>1</v>
@@ -2906,7 +2903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B115" s="2">
         <v>37</v>
       </c>
@@ -2944,7 +2941,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B116" s="2" t="s">
         <v>5</v>
       </c>
@@ -2982,7 +2979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B117" s="2" t="s">
         <v>6</v>
       </c>
@@ -3020,7 +3017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B118" s="2" t="s">
         <v>1</v>
       </c>
@@ -3058,12 +3055,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="2:26" ht="21" x14ac:dyDescent="0.4">
+    <row r="121" spans="2:26" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="W121" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="122" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:26" x14ac:dyDescent="0.25">
       <c r="W122" s="5"/>
       <c r="X122" s="6">
         <v>0</v>
@@ -3076,7 +3073,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="123" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B123" s="2"/>
       <c r="C123" s="1">
         <v>3</v>
@@ -3120,7 +3117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B124" s="2">
         <v>40</v>
       </c>
@@ -3171,7 +3168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B125" s="2" t="s">
         <v>5</v>
       </c>
@@ -3223,7 +3220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B126" s="2" t="s">
         <v>6</v>
       </c>
@@ -3275,7 +3272,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="127" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B127" s="2" t="s">
         <v>1</v>
       </c>
@@ -3313,7 +3310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="2:26" ht="21" x14ac:dyDescent="0.4">
+    <row r="132" spans="2:26" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="B132" s="2"/>
       <c r="C132" s="1">
         <v>5</v>
@@ -3349,7 +3346,7 @@
       </c>
       <c r="Y132" s="4"/>
     </row>
-    <row r="133" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="133" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B133" s="2">
         <v>43</v>
       </c>
@@ -3399,7 +3396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="134" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B134" s="2" t="s">
         <v>5</v>
       </c>
@@ -3447,7 +3444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="135" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B135" s="2" t="s">
         <v>6</v>
       </c>
@@ -3499,7 +3496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="136" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B136" s="2" t="s">
         <v>1</v>
       </c>
@@ -3551,7 +3548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="137" spans="2:26" x14ac:dyDescent="0.25">
       <c r="W137" s="2" t="s">
         <v>1</v>
       </c>
@@ -3567,23 +3564,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="138" spans="2:26" x14ac:dyDescent="0.25">
       <c r="X138" s="8"/>
     </row>
-    <row r="139" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="140" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="W140" s="11"/>
-      <c r="X140" s="12">
+    <row r="139" spans="2:26" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="140" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="W140" s="10"/>
+      <c r="X140" s="11">
         <f>SUM(C10,J10,P10,C20,J20,P20,C29,J29,P29,C38,J38,P38,C47,J47,P47,C55,J55,P55,C65,J65,P65,C74,J74,P74,C83,J83,P83,C92,J92,P92,C102,J102,P102,C112,J112,P112,C121,J121,P121,C130,J130,P130,C139,J139,P139,C148,J148,P148,C158,J158,P158,C167,J167,P167,C176,J176,P176,C185,J185,P185,C195,J195,P195,C205,J205,P205,C214,J214,P214,C223,J223,P223,C232,J232,P232,C241,J241,P241,C251,J251,P251,C260,J260,P260,C269,J269,P269,C278,J278,P278,C286,J286,P286,C294,J294,P294,C302,J302,P302,J310)</f>
         <v>0</v>
       </c>
-      <c r="Y140" s="13">
+      <c r="Y140" s="12">
         <f>SUM(D10,K10,Q10,D20,K20,Q20,Q29,K29,D29,D38,K38,D55,D65,K102,Q102,Q112,K112,D112,D121,K121,Q121,D130,K130,Q130,D158,K158,D205,Q223,K223,K251,K269,Q269,D278,K278,Q278,D286,K286,Q286,D294,K294,Q294,D302,K302,Q302,K310)</f>
         <v>0</v>
       </c>
       <c r="Z140" s="9"/>
     </row>
-    <row r="141" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="141" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B141" s="2"/>
       <c r="C141" s="1">
         <v>8</v>
@@ -3614,16 +3611,16 @@
       <c r="R141" s="1">
         <v>0</v>
       </c>
-      <c r="W141" s="14"/>
+      <c r="W141" s="13"/>
       <c r="X141" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="Y141" s="15" t="s">
+      <c r="Y141" s="14" t="s">
         <v>4</v>
       </c>
       <c r="Z141" s="9"/>
     </row>
-    <row r="142" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="142" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B142" s="2">
         <v>46</v>
       </c>
@@ -3660,18 +3657,18 @@
       <c r="R142" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="W142" s="14" t="s">
+      <c r="W142" s="13" t="s">
         <v>5</v>
       </c>
       <c r="X142" s="3">
         <v>0.88</v>
       </c>
-      <c r="Y142" s="15">
+      <c r="Y142" s="14">
         <v>0.01</v>
       </c>
       <c r="Z142" s="9"/>
     </row>
-    <row r="143" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="143" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B143" s="2" t="s">
         <v>5</v>
       </c>
@@ -3708,18 +3705,18 @@
       <c r="R143" s="2">
         <v>0</v>
       </c>
-      <c r="W143" s="14" t="s">
+      <c r="W143" s="13" t="s">
         <v>6</v>
       </c>
       <c r="X143" s="2">
         <v>0.01</v>
       </c>
-      <c r="Y143" s="16">
+      <c r="Y143" s="15">
         <v>0.86</v>
       </c>
       <c r="Z143" s="9"/>
     </row>
-    <row r="144" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="2:26" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B144" s="2" t="s">
         <v>6</v>
       </c>
@@ -3756,18 +3753,17 @@
       <c r="R144" s="2">
         <v>0</v>
       </c>
-      <c r="W144" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="X144" s="18">
+      <c r="W144" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="X144" s="17">
         <v>0.11</v>
       </c>
-      <c r="Y144" s="19">
+      <c r="Y144" s="18">
         <v>0.12</v>
       </c>
-      <c r="Z144" s="10"/>
-    </row>
-    <row r="145" spans="2:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="145" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B145" s="2" t="s">
         <v>1</v>
       </c>
@@ -3805,7 +3801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="151" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B151" s="2"/>
       <c r="C151" s="1">
         <v>8</v>
@@ -3837,7 +3833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="152" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B152" s="2">
         <v>49</v>
       </c>
@@ -3875,7 +3871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="153" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B153" s="2" t="s">
         <v>5</v>
       </c>
@@ -3913,7 +3909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="154" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B154" s="2" t="s">
         <v>6</v>
       </c>
@@ -3951,7 +3947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="155" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B155" s="2" t="s">
         <v>1</v>
       </c>
@@ -3989,7 +3985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="160" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B160" s="2"/>
       <c r="C160" s="1">
         <v>11</v>
@@ -4021,7 +4017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="161" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B161" s="2">
         <v>52</v>
       </c>
@@ -4059,7 +4055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="162" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B162" s="2" t="s">
         <v>5</v>
       </c>
@@ -4097,7 +4093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="163" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B163" s="2" t="s">
         <v>6</v>
       </c>
@@ -4135,7 +4131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="164" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B164" s="2" t="s">
         <v>1</v>
       </c>
@@ -4173,7 +4169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="169" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B169" s="2"/>
       <c r="C169" s="1">
         <v>8</v>
@@ -4205,7 +4201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="170" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B170" s="2">
         <v>55</v>
       </c>
@@ -4243,7 +4239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="171" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B171" s="2" t="s">
         <v>5</v>
       </c>
@@ -4281,7 +4277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="172" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B172" s="2" t="s">
         <v>6</v>
       </c>
@@ -4319,7 +4315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="173" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B173" s="2" t="s">
         <v>1</v>
       </c>
@@ -4357,7 +4353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="178" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B178" s="2"/>
       <c r="C178" s="1">
         <v>9</v>
@@ -4389,7 +4385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="179" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B179" s="2">
         <v>58</v>
       </c>
@@ -4427,7 +4423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="180" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B180" s="2" t="s">
         <v>5</v>
       </c>
@@ -4465,7 +4461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="181" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B181" s="2" t="s">
         <v>6</v>
       </c>
@@ -4503,7 +4499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="182" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B182" s="2" t="s">
         <v>1</v>
       </c>
@@ -4541,7 +4537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="188" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B188" s="2"/>
       <c r="C188" s="1">
         <v>4</v>
@@ -4573,7 +4569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="189" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B189" s="2">
         <v>61</v>
       </c>
@@ -4611,7 +4607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="190" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B190" s="2" t="s">
         <v>5</v>
       </c>
@@ -4649,7 +4645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="191" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B191" s="2" t="s">
         <v>6</v>
       </c>
@@ -4687,7 +4683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="192" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B192" s="2" t="s">
         <v>1</v>
       </c>
@@ -4725,7 +4721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="198" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B198" s="2"/>
       <c r="C198" s="1">
         <v>7</v>
@@ -4757,7 +4753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="199" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B199" s="2">
         <v>64</v>
       </c>
@@ -4795,7 +4791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="200" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B200" s="2" t="s">
         <v>5</v>
       </c>
@@ -4833,7 +4829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="201" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B201" s="2" t="s">
         <v>6</v>
       </c>
@@ -4871,7 +4867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="202" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B202" s="2" t="s">
         <v>1</v>
       </c>
@@ -4909,7 +4905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="207" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B207" s="2"/>
       <c r="C207" s="1">
         <v>11</v>
@@ -4941,7 +4937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="208" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B208" s="2">
         <v>67</v>
       </c>
@@ -4979,7 +4975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="209" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B209" s="2" t="s">
         <v>5</v>
       </c>
@@ -5017,7 +5013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="210" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B210" s="2" t="s">
         <v>6</v>
       </c>
@@ -5055,7 +5051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="211" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B211" s="2" t="s">
         <v>1</v>
       </c>
@@ -5093,7 +5089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="216" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B216" s="2"/>
       <c r="C216" s="1">
         <v>10</v>
@@ -5125,7 +5121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="217" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B217" s="2">
         <v>70</v>
       </c>
@@ -5163,7 +5159,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="218" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B218" s="2" t="s">
         <v>5</v>
       </c>
@@ -5201,7 +5197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="219" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B219" s="2" t="s">
         <v>6</v>
       </c>
@@ -5239,7 +5235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="220" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B220" s="2" t="s">
         <v>1</v>
       </c>
@@ -5277,7 +5273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="225" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B225" s="2"/>
       <c r="C225" s="1">
         <v>10</v>
@@ -5309,7 +5305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="226" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B226" s="2">
         <v>73</v>
       </c>
@@ -5347,7 +5343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="227" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B227" s="2" t="s">
         <v>5</v>
       </c>
@@ -5385,7 +5381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="228" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B228" s="2" t="s">
         <v>6</v>
       </c>
@@ -5423,7 +5419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="229" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B229" s="2" t="s">
         <v>1</v>
       </c>
@@ -5461,7 +5457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="234" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B234" s="2"/>
       <c r="C234" s="1">
         <v>8</v>
@@ -5493,7 +5489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="235" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B235" s="2">
         <v>76</v>
       </c>
@@ -5531,7 +5527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="236" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B236" s="2" t="s">
         <v>5</v>
       </c>
@@ -5569,7 +5565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="237" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B237" s="2" t="s">
         <v>6</v>
       </c>
@@ -5607,7 +5603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="238" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B238" s="2" t="s">
         <v>1</v>
       </c>
@@ -5645,7 +5641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="244" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B244" s="2"/>
       <c r="C244" s="1">
         <v>8</v>
@@ -5677,7 +5673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="245" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B245" s="2">
         <v>79</v>
       </c>
@@ -5715,7 +5711,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="246" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B246" s="2" t="s">
         <v>5</v>
       </c>
@@ -5753,7 +5749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="247" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B247" s="2" t="s">
         <v>6</v>
       </c>
@@ -5791,7 +5787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="248" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B248" s="2" t="s">
         <v>1</v>
       </c>
@@ -5829,7 +5825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="253" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B253" s="2"/>
       <c r="C253" s="1">
         <v>7</v>
@@ -5861,7 +5857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="254" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B254" s="2">
         <v>82</v>
       </c>
@@ -5899,7 +5895,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="255" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B255" s="2" t="s">
         <v>5</v>
       </c>
@@ -5937,7 +5933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="256" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B256" s="2" t="s">
         <v>6</v>
       </c>
@@ -5975,7 +5971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="257" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B257" s="2" t="s">
         <v>1</v>
       </c>
@@ -6013,7 +6009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="262" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B262" s="2"/>
       <c r="C262" s="1">
         <v>6</v>
@@ -6045,7 +6041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="263" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B263" s="2">
         <v>85</v>
       </c>
@@ -6083,7 +6079,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="264" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B264" s="2" t="s">
         <v>5</v>
       </c>
@@ -6121,7 +6117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="265" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B265" s="2" t="s">
         <v>6</v>
       </c>
@@ -6159,7 +6155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="266" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B266" s="2" t="s">
         <v>1</v>
       </c>
@@ -6197,7 +6193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="271" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B271" s="2"/>
       <c r="C271" s="1">
         <v>1</v>
@@ -6229,7 +6225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="272" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B272" s="2">
         <v>88</v>
       </c>
@@ -6267,7 +6263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="273" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B273" s="2" t="s">
         <v>5</v>
       </c>
@@ -6305,7 +6301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="274" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B274" s="2" t="s">
         <v>6</v>
       </c>
@@ -6343,7 +6339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="275" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B275" s="2" t="s">
         <v>1</v>
       </c>
@@ -6381,7 +6377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="279" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B279" s="2"/>
       <c r="C279" s="1">
         <v>0</v>
@@ -6413,7 +6409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="280" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B280" s="2">
         <v>91</v>
       </c>
@@ -6451,7 +6447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="281" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B281" s="2" t="s">
         <v>5</v>
       </c>
@@ -6489,7 +6485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="282" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B282" s="2" t="s">
         <v>6</v>
       </c>
@@ -6527,7 +6523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="283" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B283" s="2" t="s">
         <v>1</v>
       </c>
@@ -6565,7 +6561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="287" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B287" s="2"/>
       <c r="C287" s="1">
         <v>0</v>
@@ -6597,7 +6593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="288" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B288" s="2">
         <v>94</v>
       </c>
@@ -6635,7 +6631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="289" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="289" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B289" s="2" t="s">
         <v>5</v>
       </c>
@@ -6673,7 +6669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="290" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B290" s="2" t="s">
         <v>6</v>
       </c>
@@ -6711,7 +6707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="291" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B291" s="2" t="s">
         <v>1</v>
       </c>
@@ -6749,7 +6745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="295" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B295" s="2"/>
       <c r="C295" s="1">
         <v>0</v>
@@ -6781,7 +6777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="296" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B296" s="2">
         <v>97</v>
       </c>
@@ -6819,7 +6815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="297" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B297" s="2" t="s">
         <v>5</v>
       </c>
@@ -6857,7 +6853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="298" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B298" s="2" t="s">
         <v>6</v>
       </c>
@@ -6895,7 +6891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="299" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B299" s="2" t="s">
         <v>1</v>
       </c>
@@ -6933,7 +6929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="303" spans="2:18" x14ac:dyDescent="0.25">
       <c r="I303" s="2"/>
       <c r="J303" s="1">
         <v>0</v>
@@ -6945,7 +6941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="304" spans="2:18" x14ac:dyDescent="0.25">
       <c r="I304" s="2">
         <v>100</v>
       </c>
@@ -6959,7 +6955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="305" spans="9:12" x14ac:dyDescent="0.3">
+    <row r="305" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I305" s="2" t="s">
         <v>5</v>
       </c>
@@ -6973,7 +6969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="9:12" x14ac:dyDescent="0.3">
+    <row r="306" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I306" s="2" t="s">
         <v>6</v>
       </c>
@@ -6987,7 +6983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="9:12" x14ac:dyDescent="0.3">
+    <row r="307" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I307" s="2" t="s">
         <v>1</v>
       </c>
